--- a/Accounts-Schedules/تدريب 23-6-2025 فرع تجمع.xlsx
+++ b/Accounts-Schedules/تدريب 23-6-2025 فرع تجمع.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="169">
   <si>
     <t>Hello team, </t>
   </si>
@@ -385,6 +385,9 @@
     <t>حلوان و زهراء المعادي</t>
   </si>
   <si>
+    <t>مدخل حلوان</t>
+  </si>
+  <si>
     <t>محمود أنور</t>
   </si>
   <si>
@@ -406,6 +409,9 @@
     <t>م - الرحاب و التجمع</t>
   </si>
   <si>
+    <t>ارابيلا</t>
+  </si>
+  <si>
     <t>سهيلة هاني</t>
   </si>
   <si>
@@ -461,21 +467,94 @@
   </si>
   <si>
     <t>ندى محمد عصام</t>
+  </si>
+  <si>
+    <t>Airalo - Wave 45</t>
+  </si>
+  <si>
+    <t>Employee ID</t>
+  </si>
+  <si>
+    <t>Full Name</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Pick-Up Point</t>
+  </si>
+  <si>
+    <t>Arrival: 9:00 AM</t>
+  </si>
+  <si>
+    <t>العبور - دائري</t>
+  </si>
+  <si>
+    <t>طلعة السلام</t>
+  </si>
+  <si>
+    <t>Departure: 5:00 PM</t>
+  </si>
+  <si>
+    <t>Amjad Ahmed</t>
+  </si>
+  <si>
+    <t>Start date: 30/6/2025</t>
+  </si>
+  <si>
+    <t>الأبيض</t>
+  </si>
+  <si>
+    <t>End Date: 4/7/2025</t>
+  </si>
+  <si>
+    <t>Einas Abdelaziz</t>
+  </si>
+  <si>
+    <t>Location: 5th Settlement</t>
+  </si>
+  <si>
+    <t>أرابيلا بلازا</t>
+  </si>
+  <si>
+    <t>بوابة 2</t>
+  </si>
+  <si>
+    <t>المحكمة الدستورية</t>
+  </si>
+  <si>
+    <t>ألف مسكن</t>
+  </si>
+  <si>
+    <t>حدائق أكتوبر</t>
+  </si>
+  <si>
+    <t>بوابة دجلة</t>
+  </si>
+  <si>
+    <t>أكتوبر</t>
+  </si>
+  <si>
+    <t>هايبر وان</t>
+  </si>
+  <si>
+    <t>هايبر 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
     <numFmt numFmtId="179" formatCode="00000000000"/>
+    <numFmt numFmtId="180" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -490,6 +569,19 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -515,13 +607,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -668,12 +753,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -690,12 +793,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00FF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -892,7 +989,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -924,6 +1021,51 @@
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -1068,91 +1210,85 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1161,10 +1297,10 @@
     <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1173,10 +1309,10 @@
     <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1185,10 +1321,10 @@
     <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1197,10 +1333,10 @@
     <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1209,11 +1345,17 @@
     <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1222,56 +1364,77 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1602,331 +1765,331 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" ht="15.5" spans="1:1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:1">
-      <c r="A2" s="12"/>
+      <c r="A2" s="19"/>
     </row>
     <row r="3" ht="15.5" spans="1:1">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="15.5" spans="1:1">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" ht="15.5" spans="1:1">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" ht="16.25" spans="1:1">
-      <c r="A6" s="12"/>
+      <c r="A6" s="19"/>
     </row>
     <row r="7" ht="15.25" spans="1:3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="16" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" ht="38.25" spans="1:3">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" ht="25.75" spans="1:3">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="23">
         <v>1550184789</v>
       </c>
     </row>
     <row r="10" ht="25.75" spans="1:3">
-      <c r="A10" s="17"/>
-      <c r="B10" s="16" t="s">
+      <c r="A10" s="24"/>
+      <c r="B10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" ht="25.75" spans="1:3">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="23">
         <v>1061579577</v>
       </c>
     </row>
     <row r="12" ht="25.75" spans="1:3">
-      <c r="A12" s="17"/>
-      <c r="B12" s="16" t="s">
+      <c r="A12" s="24"/>
+      <c r="B12" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="23">
         <v>1556781384</v>
       </c>
     </row>
     <row r="13" ht="25.75" spans="1:3">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="23">
         <v>1101725173</v>
       </c>
     </row>
     <row r="14" ht="25.75" spans="1:3">
-      <c r="A14" s="17"/>
-      <c r="B14" s="16" t="s">
+      <c r="A14" s="24"/>
+      <c r="B14" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="23">
         <v>1095188156</v>
       </c>
     </row>
     <row r="15" ht="50.75" spans="1:3">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="23">
         <v>1156265544</v>
       </c>
     </row>
     <row r="16" ht="25.75" spans="1:3">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="23">
         <v>1009285674</v>
       </c>
     </row>
     <row r="17" ht="25.75" spans="1:3">
-      <c r="A17" s="17"/>
-      <c r="B17" s="16" t="s">
+      <c r="A17" s="24"/>
+      <c r="B17" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="23">
         <v>1033507698</v>
       </c>
     </row>
     <row r="18" ht="38.25" spans="1:3">
-      <c r="A18" s="17"/>
-      <c r="B18" s="16" t="s">
+      <c r="A18" s="24"/>
+      <c r="B18" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="23">
         <v>1062969212</v>
       </c>
     </row>
     <row r="19" ht="25.75" spans="1:3">
-      <c r="A19" s="17"/>
-      <c r="B19" s="16" t="s">
+      <c r="A19" s="24"/>
+      <c r="B19" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="23">
         <v>1153627633</v>
       </c>
     </row>
     <row r="20" ht="25.75" spans="1:3">
-      <c r="A20" s="17"/>
-      <c r="B20" s="16" t="s">
+      <c r="A20" s="24"/>
+      <c r="B20" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="23">
         <v>1129619680</v>
       </c>
     </row>
     <row r="21" ht="25.75" spans="1:3">
-      <c r="A21" s="17"/>
-      <c r="B21" s="16" t="s">
+      <c r="A21" s="24"/>
+      <c r="B21" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="23">
         <v>1098346978</v>
       </c>
     </row>
     <row r="22" ht="25.75" spans="1:3">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="26">
         <v>1017405291</v>
       </c>
     </row>
     <row r="23" ht="15.25" spans="1:3">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="23">
         <v>1024613600</v>
       </c>
     </row>
     <row r="24" ht="25.75" spans="1:3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="16" t="s">
+      <c r="A24" s="24"/>
+      <c r="B24" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="23">
         <v>1032547186</v>
       </c>
     </row>
     <row r="25" ht="38.25" spans="1:3">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="23">
         <v>1007351707</v>
       </c>
     </row>
     <row r="26" ht="25.75" spans="1:3">
-      <c r="A26" s="20"/>
-      <c r="B26" s="19" t="s">
+      <c r="A26" s="27"/>
+      <c r="B26" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="26">
         <v>1030968156</v>
       </c>
     </row>
     <row r="27" ht="25.75" spans="1:3">
-      <c r="A27" s="17"/>
-      <c r="B27" s="16" t="s">
+      <c r="A27" s="24"/>
+      <c r="B27" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27" s="23">
         <v>1285888728</v>
       </c>
     </row>
     <row r="28" ht="25.75" spans="1:3">
-      <c r="A28" s="17"/>
-      <c r="B28" s="16" t="s">
+      <c r="A28" s="24"/>
+      <c r="B28" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="23">
         <v>1005741195</v>
       </c>
     </row>
     <row r="29" ht="25.75" spans="1:3">
-      <c r="A29" s="17"/>
-      <c r="B29" s="16" t="s">
+      <c r="A29" s="24"/>
+      <c r="B29" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C29" s="23">
         <v>1012348684</v>
       </c>
     </row>
     <row r="30" ht="63.25" spans="1:3">
-      <c r="A30" s="17"/>
-      <c r="B30" s="16" t="s">
+      <c r="A30" s="24"/>
+      <c r="B30" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30" s="23">
         <v>1553989783</v>
       </c>
     </row>
     <row r="31" ht="25.75" spans="1:3">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="16">
+      <c r="C31" s="23">
         <v>1016789685</v>
       </c>
     </row>
     <row r="32" ht="38.25" spans="1:3">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="19">
+      <c r="C32" s="26">
         <v>1110081480</v>
       </c>
     </row>
     <row r="33" ht="25.75" spans="1:3">
-      <c r="A33" s="17"/>
-      <c r="B33" s="16" t="s">
+      <c r="A33" s="24"/>
+      <c r="B33" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="23" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="34" ht="25.75" spans="1:3">
-      <c r="A34" s="17"/>
-      <c r="B34" s="16" t="s">
+      <c r="A34" s="24"/>
+      <c r="B34" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="16">
+      <c r="C34" s="23">
         <v>1013444202</v>
       </c>
     </row>
     <row r="35" ht="25.75" spans="1:3">
-      <c r="A35" s="17"/>
-      <c r="B35" s="16" t="s">
+      <c r="A35" s="24"/>
+      <c r="B35" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="23">
         <v>1040655429</v>
       </c>
     </row>
     <row r="36" ht="25.75" spans="1:3">
-      <c r="A36" s="21"/>
-      <c r="B36" s="22" t="s">
+      <c r="A36" s="28"/>
+      <c r="B36" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="22">
+      <c r="C36" s="29">
         <v>1142286774</v>
       </c>
     </row>
     <row r="37" ht="38.25" spans="1:3">
-      <c r="A37" s="23"/>
-      <c r="B37" s="14" t="s">
+      <c r="A37" s="30"/>
+      <c r="B37" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="14">
+      <c r="C37" s="21">
         <v>1007879704</v>
       </c>
     </row>
@@ -1949,447 +2112,447 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" ht="15.5" spans="1:1">
-      <c r="A1" s="7"/>
+      <c r="A1" s="14"/>
     </row>
     <row r="2" ht="15.5" spans="1:1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="14" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" ht="16.25" spans="1:1">
-      <c r="A3" s="7"/>
+      <c r="A3" s="14"/>
     </row>
     <row r="4" ht="15.25" spans="1:4">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="16" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="5" ht="38.25" spans="1:4">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="18" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="6" ht="25.75" spans="1:4">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="18">
         <v>1550184789</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="18" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="7" ht="25.75" spans="1:4">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="18" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="8" ht="25.75" spans="1:4">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="18">
         <v>1061579577</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="18" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="9" ht="25.75" spans="1:4">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="18">
         <v>1556781384</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="18" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="10" ht="25.75" spans="1:4">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="18">
         <v>1101725173</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="18" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="11" ht="25.75" spans="1:4">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="18">
         <v>1095188156</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="12" ht="50.75" spans="1:4">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="18">
         <v>1156265544</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="18" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="13" ht="25.75" spans="1:4">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="18">
         <v>1009285674</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="18" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="14" ht="25.75" spans="1:4">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="18">
         <v>1033507698</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="18" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="15" ht="38.25" spans="1:4">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="18">
         <v>1062969212</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="18" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="16" ht="38.25" spans="1:4">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="18">
         <v>1153627633</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="18" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="17" ht="25.75" spans="1:4">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="18">
         <v>1129619680</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="18" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="18" ht="25.75" spans="1:4">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="18">
         <v>1098346978</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="18" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="19" ht="25.75" spans="1:4">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="18">
         <v>1017405291</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="18" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="20" ht="15.25" spans="1:4">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="18">
         <v>1024613600</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="18" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="21" ht="25.75" spans="1:4">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="18">
         <v>1283438276</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="18" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="22" ht="38.25" spans="1:4">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="18">
         <v>1007351707</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="18" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="23" ht="25.75" spans="1:4">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="18">
         <v>1030968156</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="18" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="24" ht="25.75" spans="1:4">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="18">
         <v>1285888728</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="18" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="25" ht="25.75" spans="1:4">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="18">
         <v>1005741195</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="26" ht="25.75" spans="1:4">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="18">
         <v>1012348684</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="18" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="27" ht="63.25" spans="1:4">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="18">
         <v>1553989783</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="18" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="28" ht="25.75" spans="1:4">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="18">
         <v>1016789685</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="18" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="29" ht="38.25" spans="1:4">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="18">
         <v>1110081480</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="18" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="30" ht="25.75" spans="1:4">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="18" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="31" ht="38.25" spans="1:4">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="18">
         <v>1013444202</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="18" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="32" ht="25.75" spans="1:4">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32" s="18">
         <v>1040655429</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="18" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="33" ht="25.75" spans="1:4">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B33" s="18">
         <v>1142286774</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="18" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="34" ht="38.25" spans="1:4">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="11">
+      <c r="B34" s="18">
         <v>1007879704</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="18" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2403,13 +2566,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G27"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42:G63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="8.27272727272727" customWidth="1"/>
     <col min="3" max="3" width="22.4272727272727" customWidth="1"/>
@@ -2464,13 +2627,13 @@
       <c r="D3" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="2" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2490,10 +2653,10 @@
       <c r="E4" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="2" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2513,10 +2676,10 @@
       <c r="E5" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="2" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2536,10 +2699,10 @@
       <c r="E6" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="2" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2559,10 +2722,10 @@
       <c r="E7" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="2" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2582,10 +2745,10 @@
       <c r="E8" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="2" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2605,10 +2768,10 @@
       <c r="E9" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="2" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2628,10 +2791,10 @@
       <c r="E10" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="2" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2651,11 +2814,11 @@
       <c r="E11" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>78</v>
+      <c r="G11" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2665,19 +2828,19 @@
       <c r="B12" s="4">
         <v>0.708333333333333</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>103</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F12" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="F12" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2695,12 +2858,12 @@
         <v>103</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="F13" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="2" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2718,12 +2881,12 @@
         <v>103</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F14" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="2" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2741,12 +2904,12 @@
         <v>103</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="F15" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="2" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2764,13 +2927,13 @@
         <v>103</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="F16" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>68</v>
+      <c r="F16" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2787,12 +2950,12 @@
         <v>103</v>
       </c>
       <c r="E17" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2809,13 +2972,13 @@
       <c r="D18" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="G18" s="6" t="s">
+      <c r="E18" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2832,13 +2995,13 @@
       <c r="D19" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="G19" s="6" t="s">
+      <c r="E19" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2856,12 +3019,12 @@
         <v>103</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="G20" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2879,12 +3042,12 @@
         <v>103</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="F21" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="2" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2902,12 +3065,12 @@
         <v>103</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="G22" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2925,12 +3088,12 @@
         <v>103</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="G23" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2948,12 +3111,12 @@
         <v>103</v>
       </c>
       <c r="E24" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="2" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2971,12 +3134,12 @@
         <v>103</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="G25" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2994,12 +3157,12 @@
         <v>103</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="G26" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3017,12 +3180,12 @@
         <v>103</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="G27" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3031,115 +3194,1029 @@
         <v>1061579577</v>
       </c>
       <c r="D28" s="5"/>
-      <c r="E28" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
+      <c r="E28" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
     </row>
     <row r="29" spans="3:7">
       <c r="C29" s="5">
         <v>1062969212</v>
       </c>
       <c r="D29" s="5"/>
-      <c r="E29" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
+      <c r="E29" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
     </row>
     <row r="30" spans="3:7">
       <c r="C30" s="5">
         <v>1153627633</v>
       </c>
       <c r="D30" s="5"/>
-      <c r="E30" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
+      <c r="E30" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
     </row>
     <row r="31" spans="3:7">
       <c r="C31" s="5">
         <v>1013444202</v>
       </c>
       <c r="D31" s="5"/>
-      <c r="E31" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
+      <c r="E31" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
     </row>
     <row r="32" spans="3:7">
       <c r="C32" s="5">
         <v>1007879704</v>
       </c>
       <c r="D32" s="5"/>
-      <c r="E32" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
+      <c r="E32" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-    </row>
-    <row r="40" spans="2:6">
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" ht="15.25" spans="2:6">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" ht="15.25" spans="3:9">
+      <c r="C41" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="42" ht="15.25" spans="3:9">
+      <c r="C42" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D42" s="9">
+        <v>10335118</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="G42" s="11">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="43" ht="15.25" spans="3:9">
+      <c r="C43" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D43" s="9">
+        <v>10335058</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="F43" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="G43" s="11">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" ht="15.25" spans="3:9">
+      <c r="C44" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D44" s="9">
+        <v>10335131</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="G44" s="11">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I44" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="45" ht="15.25" spans="3:9">
+      <c r="C45" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D45" s="9">
+        <v>10335012</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="F45" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="G45" s="11">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" ht="15.25" spans="3:9">
+      <c r="C46" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D46" s="9">
+        <v>10335179</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="G46" s="11">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I46" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" ht="15.25" spans="4:9">
+      <c r="D47" s="9">
+        <v>10335167</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="G47" s="11">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="I47" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" ht="15.25" spans="4:9">
+      <c r="D48" s="9">
+        <v>10335055</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="G48" s="11">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="I48" s="12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49" ht="15.25" spans="4:9">
+      <c r="D49" s="9">
+        <v>10335019</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F49" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="G49" s="11">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I49" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" ht="15.25" spans="4:9">
+      <c r="D50" s="9">
+        <v>10335026</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F50" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="G50" s="11">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I50" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="51" ht="15.25" spans="4:9">
+      <c r="D51" s="9">
+        <v>10335066</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F51" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="G51" s="11">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H51" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="I51" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" ht="15.25" spans="4:9">
+      <c r="D52" s="9">
+        <v>10335052</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F52" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="G52" s="11">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I52" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" ht="15.25" spans="4:9">
+      <c r="D53" s="9">
+        <v>10333832</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F53" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="G53" s="11">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H53" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I53" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" ht="15.25" spans="4:9">
+      <c r="D54" s="9">
+        <v>10335013</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F54" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="G54" s="11">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H54" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="I54" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="55" ht="15.25" spans="4:9">
+      <c r="D55" s="9">
+        <v>10335060</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F55" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="G55" s="11">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H55" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="I55" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" ht="15.25" spans="4:9">
+      <c r="D56" s="9">
+        <v>10335050</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F56" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="G56" s="11">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="I56" s="12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="57" ht="15.25" spans="4:9">
+      <c r="D57" s="9">
+        <v>10335120</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F57" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="G57" s="11">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I57" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" ht="15.25" spans="4:9">
+      <c r="D58" s="9">
+        <v>10335024</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F58" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="G58" s="11">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I58" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" ht="15.25" spans="4:9">
+      <c r="D59" s="9">
+        <v>10335056</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F59" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="G59" s="11">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I59" s="12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="60" ht="15.25" spans="4:9">
+      <c r="D60" s="9">
+        <v>10335073</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F60" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="G60" s="11">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H60" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="I60" s="12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="61" ht="15.25" spans="4:9">
+      <c r="D61" s="9">
+        <v>10335051</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F61" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="G61" s="11">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H61" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I61" s="12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="62" ht="15.25" spans="4:9">
+      <c r="D62" s="9">
+        <v>10335057</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="G62" s="11">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H62" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="I62" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="63" ht="15.25" spans="4:9">
+      <c r="D63" s="9">
+        <v>10335027</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F63" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="G63" s="11">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H63" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I63" s="12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="65" spans="3:8">
+      <c r="C65">
+        <v>10335118</v>
+      </c>
+      <c r="D65" t="s">
+        <v>54</v>
+      </c>
+      <c r="E65" t="s">
+        <v>119</v>
+      </c>
+      <c r="F65" t="s">
+        <v>118</v>
+      </c>
+      <c r="G65" t="s">
+        <v>9</v>
+      </c>
+      <c r="H65" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="3:8">
+      <c r="C66">
+        <v>10335058</v>
+      </c>
+      <c r="D66" t="s">
+        <v>56</v>
+      </c>
+      <c r="E66" t="s">
+        <v>55</v>
+      </c>
+      <c r="F66" t="s">
+        <v>120</v>
+      </c>
+      <c r="G66">
+        <v>1550184789</v>
+      </c>
+      <c r="H66" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="67" spans="3:8">
+      <c r="C67">
+        <v>10335131</v>
+      </c>
+      <c r="D67" t="s">
+        <v>57</v>
+      </c>
+      <c r="E67" t="s">
+        <v>55</v>
+      </c>
+      <c r="F67" t="s">
+        <v>121</v>
+      </c>
+      <c r="G67" t="s">
+        <v>13</v>
+      </c>
+      <c r="H67" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="3:8">
+      <c r="C68">
+        <v>10335012</v>
+      </c>
+      <c r="D68" t="s">
+        <v>61</v>
+      </c>
+      <c r="E68" t="s">
+        <v>133</v>
+      </c>
+      <c r="F68" t="s">
+        <v>132</v>
+      </c>
+      <c r="G68">
+        <v>1556781384</v>
+      </c>
+      <c r="H68" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="69" spans="3:8">
+      <c r="C69">
+        <v>10335179</v>
+      </c>
+      <c r="D69" t="s">
+        <v>62</v>
+      </c>
+      <c r="E69" t="s">
+        <v>55</v>
+      </c>
+      <c r="F69" t="s">
+        <v>122</v>
+      </c>
+      <c r="G69">
+        <v>1101725173</v>
+      </c>
+      <c r="H69" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="3:8">
+      <c r="C70">
+        <v>10335167</v>
+      </c>
+      <c r="D70" t="s">
+        <v>66</v>
+      </c>
+      <c r="E70" t="s">
+        <v>65</v>
+      </c>
+      <c r="F70" t="s">
+        <v>112</v>
+      </c>
+      <c r="G70">
+        <v>1156265544</v>
+      </c>
+      <c r="H70" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="3:8">
+      <c r="C71">
+        <v>10335055</v>
+      </c>
+      <c r="D71" t="s">
+        <v>125</v>
+      </c>
+      <c r="E71" t="s">
+        <v>124</v>
+      </c>
+      <c r="F71" t="s">
+        <v>123</v>
+      </c>
+      <c r="G71">
+        <v>1009285674</v>
+      </c>
+      <c r="H71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="3:8">
+      <c r="C72">
+        <v>10335019</v>
+      </c>
+      <c r="D72" t="s">
+        <v>61</v>
+      </c>
+      <c r="E72" t="s">
+        <v>133</v>
+      </c>
+      <c r="F72" t="s">
+        <v>134</v>
+      </c>
+      <c r="G72">
+        <v>1033507698</v>
+      </c>
+      <c r="H72" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="3:8">
+      <c r="C73">
+        <v>10335026</v>
+      </c>
+      <c r="D73" t="s">
+        <v>61</v>
+      </c>
+      <c r="E73" t="s">
+        <v>133</v>
+      </c>
+      <c r="F73" t="s">
+        <v>135</v>
+      </c>
+      <c r="G73">
+        <v>1129619680</v>
+      </c>
+      <c r="H73" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="74" spans="3:8">
+      <c r="C74">
+        <v>10335066</v>
+      </c>
+      <c r="D74" t="s">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>111</v>
+      </c>
+      <c r="F74" t="s">
+        <v>110</v>
+      </c>
+      <c r="G74">
+        <v>1098346978</v>
+      </c>
+      <c r="H74" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75" spans="3:8">
+      <c r="C75">
+        <v>10335052</v>
+      </c>
+      <c r="D75" t="s">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>124</v>
+      </c>
+      <c r="F75" t="s">
+        <v>126</v>
+      </c>
+      <c r="G75">
+        <v>1017405291</v>
+      </c>
+      <c r="H75" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76" spans="3:8">
+      <c r="C76">
+        <v>10333832</v>
+      </c>
+      <c r="D76" t="s">
+        <v>76</v>
+      </c>
+      <c r="E76" t="s">
+        <v>130</v>
+      </c>
+      <c r="F76" t="s">
+        <v>129</v>
+      </c>
+      <c r="G76">
+        <v>1024613600</v>
+      </c>
+      <c r="H76" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" spans="3:8">
+      <c r="C77">
+        <v>10335013</v>
+      </c>
+      <c r="D77" t="s">
+        <v>117</v>
+      </c>
+      <c r="E77" t="s">
+        <v>116</v>
+      </c>
+      <c r="F77" t="s">
+        <v>115</v>
+      </c>
+      <c r="G77">
+        <v>1283438276</v>
+      </c>
+      <c r="H77" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78" spans="3:8">
+      <c r="C78">
+        <v>10335060</v>
+      </c>
+      <c r="D78" t="s">
+        <v>84</v>
+      </c>
+      <c r="E78" t="s">
+        <v>83</v>
+      </c>
+      <c r="F78" t="s">
+        <v>131</v>
+      </c>
+      <c r="G78">
+        <v>1005741195</v>
+      </c>
+      <c r="H78" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="79" spans="3:8">
+      <c r="C79">
+        <v>10335050</v>
+      </c>
+      <c r="D79" t="s">
+        <v>86</v>
+      </c>
+      <c r="E79" t="s">
+        <v>139</v>
+      </c>
+      <c r="F79" t="s">
+        <v>138</v>
+      </c>
+      <c r="G79">
+        <v>1012348684</v>
+      </c>
+      <c r="H79" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="80" spans="3:8">
+      <c r="C80">
+        <v>10335120</v>
+      </c>
+      <c r="D80" t="s">
+        <v>61</v>
+      </c>
+      <c r="E80" t="s">
+        <v>133</v>
+      </c>
+      <c r="F80" t="s">
+        <v>136</v>
+      </c>
+      <c r="G80">
+        <v>1553989783</v>
+      </c>
+      <c r="H80" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="81" spans="3:8">
+      <c r="C81">
+        <v>10335024</v>
+      </c>
+      <c r="D81" t="s">
+        <v>61</v>
+      </c>
+      <c r="E81" t="s">
+        <v>133</v>
+      </c>
+      <c r="F81" t="s">
+        <v>137</v>
+      </c>
+      <c r="G81">
+        <v>1016789685</v>
+      </c>
+      <c r="H81" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="82" spans="3:8">
+      <c r="C82">
+        <v>10335056</v>
+      </c>
+      <c r="D82" t="s">
+        <v>80</v>
+      </c>
+      <c r="E82" t="s">
+        <v>107</v>
+      </c>
+      <c r="F82" t="s">
+        <v>109</v>
+      </c>
+      <c r="G82">
+        <v>1110081480</v>
+      </c>
+      <c r="H82" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="83" spans="3:8">
+      <c r="C83">
+        <v>10335073</v>
+      </c>
+      <c r="D83" t="s">
+        <v>94</v>
+      </c>
+      <c r="E83" t="s">
+        <v>93</v>
+      </c>
+      <c r="F83" t="s">
+        <v>114</v>
+      </c>
+      <c r="G83">
+        <v>1040655429</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="84" spans="3:8">
+      <c r="C84">
+        <v>10335051</v>
+      </c>
+      <c r="D84" t="s">
+        <v>80</v>
+      </c>
+      <c r="E84" t="s">
+        <v>107</v>
+      </c>
+      <c r="F84" t="s">
+        <v>106</v>
+      </c>
+      <c r="G84">
+        <v>1007351707</v>
+      </c>
+      <c r="H84" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="85" spans="3:8">
+      <c r="C85">
+        <v>10335057</v>
+      </c>
+      <c r="D85" t="s">
+        <v>168</v>
+      </c>
+      <c r="E85" t="s">
+        <v>105</v>
+      </c>
+      <c r="F85" t="s">
+        <v>113</v>
+      </c>
+      <c r="G85">
+        <v>1095188156</v>
+      </c>
+      <c r="H85" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="3:8">
+      <c r="C86">
+        <v>10335027</v>
+      </c>
+      <c r="D86" t="s">
+        <v>80</v>
+      </c>
+      <c r="E86" t="s">
+        <v>107</v>
+      </c>
+      <c r="F86" t="s">
+        <v>108</v>
+      </c>
+      <c r="G86">
+        <v>1285888728</v>
+      </c>
+      <c r="H86" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A2:G32" etc:filterBottomFollowUsedRange="0">
-    <sortState ref="A3:G32">
+    <sortState ref="A2:G32">
       <sortCondition ref="F2"/>
     </sortState>
     <extLst/>

--- a/Accounts-Schedules/تدريب 23-6-2025 فرع تجمع.xlsx
+++ b/Accounts-Schedules/تدريب 23-6-2025 فرع تجمع.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="171">
   <si>
     <t>Hello team, </t>
   </si>
@@ -539,6 +539,12 @@
   </si>
   <si>
     <t>هايبر 1</t>
+  </si>
+  <si>
+    <t>Start date: 7/7/2025</t>
+  </si>
+  <si>
+    <t>End Date: 11/7/2025</t>
   </si>
 </sst>
 </file>
@@ -1355,7 +1361,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1381,6 +1387,24 @@
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1765,331 +1789,331 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" ht="15.5" spans="1:1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:1">
-      <c r="A2" s="19"/>
+      <c r="A2" s="25"/>
     </row>
     <row r="3" ht="15.5" spans="1:1">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="15.5" spans="1:1">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="25" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" ht="15.5" spans="1:1">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="20" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" ht="16.25" spans="1:1">
-      <c r="A6" s="19"/>
+      <c r="A6" s="25"/>
     </row>
     <row r="7" ht="15.25" spans="1:3">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="22" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" ht="38.25" spans="1:3">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" ht="25.75" spans="1:3">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="29">
         <v>1550184789</v>
       </c>
     </row>
     <row r="10" ht="25.75" spans="1:3">
-      <c r="A10" s="24"/>
-      <c r="B10" s="23" t="s">
+      <c r="A10" s="30"/>
+      <c r="B10" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="29" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" ht="25.75" spans="1:3">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="29">
         <v>1061579577</v>
       </c>
     </row>
     <row r="12" ht="25.75" spans="1:3">
-      <c r="A12" s="24"/>
-      <c r="B12" s="23" t="s">
+      <c r="A12" s="30"/>
+      <c r="B12" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="29">
         <v>1556781384</v>
       </c>
     </row>
     <row r="13" ht="25.75" spans="1:3">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="29">
         <v>1101725173</v>
       </c>
     </row>
     <row r="14" ht="25.75" spans="1:3">
-      <c r="A14" s="24"/>
-      <c r="B14" s="23" t="s">
+      <c r="A14" s="30"/>
+      <c r="B14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="29">
         <v>1095188156</v>
       </c>
     </row>
     <row r="15" ht="50.75" spans="1:3">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="29">
         <v>1156265544</v>
       </c>
     </row>
     <row r="16" ht="25.75" spans="1:3">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="29">
         <v>1009285674</v>
       </c>
     </row>
     <row r="17" ht="25.75" spans="1:3">
-      <c r="A17" s="24"/>
-      <c r="B17" s="23" t="s">
+      <c r="A17" s="30"/>
+      <c r="B17" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="29">
         <v>1033507698</v>
       </c>
     </row>
     <row r="18" ht="38.25" spans="1:3">
-      <c r="A18" s="24"/>
-      <c r="B18" s="23" t="s">
+      <c r="A18" s="30"/>
+      <c r="B18" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="29">
         <v>1062969212</v>
       </c>
     </row>
     <row r="19" ht="25.75" spans="1:3">
-      <c r="A19" s="24"/>
-      <c r="B19" s="23" t="s">
+      <c r="A19" s="30"/>
+      <c r="B19" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="29">
         <v>1153627633</v>
       </c>
     </row>
     <row r="20" ht="25.75" spans="1:3">
-      <c r="A20" s="24"/>
-      <c r="B20" s="23" t="s">
+      <c r="A20" s="30"/>
+      <c r="B20" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C20" s="29">
         <v>1129619680</v>
       </c>
     </row>
     <row r="21" ht="25.75" spans="1:3">
-      <c r="A21" s="24"/>
-      <c r="B21" s="23" t="s">
+      <c r="A21" s="30"/>
+      <c r="B21" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="29">
         <v>1098346978</v>
       </c>
     </row>
     <row r="22" ht="25.75" spans="1:3">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C22" s="32">
         <v>1017405291</v>
       </c>
     </row>
     <row r="23" ht="15.25" spans="1:3">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="29">
         <v>1024613600</v>
       </c>
     </row>
     <row r="24" ht="25.75" spans="1:3">
-      <c r="A24" s="24"/>
-      <c r="B24" s="23" t="s">
+      <c r="A24" s="30"/>
+      <c r="B24" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="23">
+      <c r="C24" s="29">
         <v>1032547186</v>
       </c>
     </row>
     <row r="25" ht="38.25" spans="1:3">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C25" s="29">
         <v>1007351707</v>
       </c>
     </row>
     <row r="26" ht="25.75" spans="1:3">
-      <c r="A26" s="27"/>
-      <c r="B26" s="26" t="s">
+      <c r="A26" s="33"/>
+      <c r="B26" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="26">
+      <c r="C26" s="32">
         <v>1030968156</v>
       </c>
     </row>
     <row r="27" ht="25.75" spans="1:3">
-      <c r="A27" s="24"/>
-      <c r="B27" s="23" t="s">
+      <c r="A27" s="30"/>
+      <c r="B27" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27" s="29">
         <v>1285888728</v>
       </c>
     </row>
     <row r="28" ht="25.75" spans="1:3">
-      <c r="A28" s="24"/>
-      <c r="B28" s="23" t="s">
+      <c r="A28" s="30"/>
+      <c r="B28" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="23">
+      <c r="C28" s="29">
         <v>1005741195</v>
       </c>
     </row>
     <row r="29" ht="25.75" spans="1:3">
-      <c r="A29" s="24"/>
-      <c r="B29" s="23" t="s">
+      <c r="A29" s="30"/>
+      <c r="B29" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29" s="29">
         <v>1012348684</v>
       </c>
     </row>
     <row r="30" ht="63.25" spans="1:3">
-      <c r="A30" s="24"/>
-      <c r="B30" s="23" t="s">
+      <c r="A30" s="30"/>
+      <c r="B30" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C30" s="29">
         <v>1553989783</v>
       </c>
     </row>
     <row r="31" ht="25.75" spans="1:3">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="23">
+      <c r="C31" s="29">
         <v>1016789685</v>
       </c>
     </row>
     <row r="32" ht="38.25" spans="1:3">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="26">
+      <c r="C32" s="32">
         <v>1110081480</v>
       </c>
     </row>
     <row r="33" ht="25.75" spans="1:3">
-      <c r="A33" s="24"/>
-      <c r="B33" s="23" t="s">
+      <c r="A33" s="30"/>
+      <c r="B33" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="29" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="34" ht="25.75" spans="1:3">
-      <c r="A34" s="24"/>
-      <c r="B34" s="23" t="s">
+      <c r="A34" s="30"/>
+      <c r="B34" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="23">
+      <c r="C34" s="29">
         <v>1013444202</v>
       </c>
     </row>
     <row r="35" ht="25.75" spans="1:3">
-      <c r="A35" s="24"/>
-      <c r="B35" s="23" t="s">
+      <c r="A35" s="30"/>
+      <c r="B35" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="23">
+      <c r="C35" s="29">
         <v>1040655429</v>
       </c>
     </row>
     <row r="36" ht="25.75" spans="1:3">
-      <c r="A36" s="28"/>
-      <c r="B36" s="29" t="s">
+      <c r="A36" s="34"/>
+      <c r="B36" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="29">
+      <c r="C36" s="35">
         <v>1142286774</v>
       </c>
     </row>
     <row r="37" ht="38.25" spans="1:3">
-      <c r="A37" s="30"/>
-      <c r="B37" s="21" t="s">
+      <c r="A37" s="36"/>
+      <c r="B37" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="21">
+      <c r="C37" s="27">
         <v>1007879704</v>
       </c>
     </row>
@@ -2112,447 +2136,447 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" ht="15.5" spans="1:1">
-      <c r="A1" s="14"/>
+      <c r="A1" s="20"/>
     </row>
     <row r="2" ht="15.5" spans="1:1">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="20" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" ht="16.25" spans="1:1">
-      <c r="A3" s="14"/>
+      <c r="A3" s="20"/>
     </row>
     <row r="4" ht="15.25" spans="1:4">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="22" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="5" ht="38.25" spans="1:4">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="24" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="6" ht="25.75" spans="1:4">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="24">
         <v>1550184789</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="24" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="7" ht="25.75" spans="1:4">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="24" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="8" ht="25.75" spans="1:4">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="24">
         <v>1061579577</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="24" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="9" ht="25.75" spans="1:4">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="24">
         <v>1556781384</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="24" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="10" ht="25.75" spans="1:4">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="24">
         <v>1101725173</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="24" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="11" ht="25.75" spans="1:4">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="24">
         <v>1095188156</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="24" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="12" ht="50.75" spans="1:4">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="24">
         <v>1156265544</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="24" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="13" ht="25.75" spans="1:4">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="24">
         <v>1009285674</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="24" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="14" ht="25.75" spans="1:4">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="24">
         <v>1033507698</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="24" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="15" ht="38.25" spans="1:4">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="24">
         <v>1062969212</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="24" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="16" ht="38.25" spans="1:4">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="24">
         <v>1153627633</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="24" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="17" ht="25.75" spans="1:4">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="24">
         <v>1129619680</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="24" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="18" ht="25.75" spans="1:4">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="24">
         <v>1098346978</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="24" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="19" ht="25.75" spans="1:4">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="24">
         <v>1017405291</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="24" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="20" ht="15.25" spans="1:4">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="24">
         <v>1024613600</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="24" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="21" ht="25.75" spans="1:4">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="24">
         <v>1283438276</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="24" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="22" ht="38.25" spans="1:4">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B22" s="24">
         <v>1007351707</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="24" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="23" ht="25.75" spans="1:4">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B23" s="24">
         <v>1030968156</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="24" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="24" ht="25.75" spans="1:4">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="18">
+      <c r="B24" s="24">
         <v>1285888728</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="24" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="25" ht="25.75" spans="1:4">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="18">
+      <c r="B25" s="24">
         <v>1005741195</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="26" ht="25.75" spans="1:4">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="18">
+      <c r="B26" s="24">
         <v>1012348684</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="24" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="27" ht="63.25" spans="1:4">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="18">
+      <c r="B27" s="24">
         <v>1553989783</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="24" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="28" ht="25.75" spans="1:4">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="18">
+      <c r="B28" s="24">
         <v>1016789685</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="24" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="29" ht="38.25" spans="1:4">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B29" s="24">
         <v>1110081480</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="24" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="30" ht="25.75" spans="1:4">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="24" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="31" ht="38.25" spans="1:4">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="18">
+      <c r="B31" s="24">
         <v>1013444202</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="24" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="32" ht="25.75" spans="1:4">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="18">
+      <c r="B32" s="24">
         <v>1040655429</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="24" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="33" ht="25.75" spans="1:4">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="18">
+      <c r="B33" s="24">
         <v>1142286774</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="D33" s="24" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="34" ht="38.25" spans="1:4">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="18">
+      <c r="B34" s="24">
         <v>1007879704</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="D34" s="24" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2566,10 +2590,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I86"/>
+  <dimension ref="A1:I111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42:G63"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90:G111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -4214,6 +4238,477 @@
         <v>36</v>
       </c>
     </row>
+    <row r="89" ht="15.25" spans="4:9">
+      <c r="D89" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E89" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="I89" s="15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="90" ht="15.25" spans="2:9">
+      <c r="B90" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D90" s="16">
+        <v>10335118</v>
+      </c>
+      <c r="E90" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F90" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="G90" s="18">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H90" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="I90" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="91" ht="15.25" spans="2:9">
+      <c r="B91" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D91" s="16">
+        <v>10335058</v>
+      </c>
+      <c r="E91" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="F91" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="G91" s="18">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H91" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="I91" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="92" ht="15.25" spans="2:9">
+      <c r="B92" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D92" s="16">
+        <v>10335131</v>
+      </c>
+      <c r="E92" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F92" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="G92" s="18">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H92" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="I92" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="93" ht="15.25" spans="2:9">
+      <c r="B93" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D93" s="16">
+        <v>10335012</v>
+      </c>
+      <c r="E93" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="F93" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="G93" s="18">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H93" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="I93" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="94" ht="15.25" spans="2:9">
+      <c r="B94" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D94" s="16">
+        <v>10335179</v>
+      </c>
+      <c r="E94" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F94" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="G94" s="18">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H94" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="I94" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="95" ht="15.25" spans="4:9">
+      <c r="D95" s="16">
+        <v>10335167</v>
+      </c>
+      <c r="E95" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F95" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="G95" s="18">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H95" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="I95" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="96" ht="15.25" spans="4:9">
+      <c r="D96" s="16">
+        <v>10335055</v>
+      </c>
+      <c r="E96" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F96" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="G96" s="18">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H96" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="I96" s="17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="97" ht="15.25" spans="4:9">
+      <c r="D97" s="16">
+        <v>10335019</v>
+      </c>
+      <c r="E97" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F97" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="G97" s="18">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H97" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="I97" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="98" ht="15.25" spans="4:9">
+      <c r="D98" s="16">
+        <v>10335026</v>
+      </c>
+      <c r="E98" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F98" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="G98" s="18">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H98" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="I98" s="17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="99" ht="15.25" spans="4:9">
+      <c r="D99" s="16">
+        <v>10335066</v>
+      </c>
+      <c r="E99" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F99" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="G99" s="18">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H99" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="I99" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="100" ht="15.25" spans="4:9">
+      <c r="D100" s="16">
+        <v>10335052</v>
+      </c>
+      <c r="E100" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F100" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="G100" s="18">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H100" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="I100" s="19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="101" ht="15.25" spans="4:9">
+      <c r="D101" s="16">
+        <v>10333832</v>
+      </c>
+      <c r="E101" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F101" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="G101" s="18">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H101" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="I101" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="102" ht="15.25" spans="4:9">
+      <c r="D102" s="16">
+        <v>10335013</v>
+      </c>
+      <c r="E102" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F102" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="G102" s="18">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H102" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="I102" s="17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="103" ht="15.25" spans="4:9">
+      <c r="D103" s="16">
+        <v>10335060</v>
+      </c>
+      <c r="E103" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F103" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="G103" s="18">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H103" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="I103" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="104" ht="15.25" spans="4:9">
+      <c r="D104" s="16">
+        <v>10335050</v>
+      </c>
+      <c r="E104" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F104" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="G104" s="18">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H104" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="I104" s="17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="105" ht="15.25" spans="4:9">
+      <c r="D105" s="16">
+        <v>10335120</v>
+      </c>
+      <c r="E105" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="F105" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="G105" s="18">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H105" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="I105" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="106" ht="15.25" spans="4:9">
+      <c r="D106" s="16">
+        <v>10335024</v>
+      </c>
+      <c r="E106" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F106" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="G106" s="18">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H106" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="I106" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="107" ht="15.25" spans="4:9">
+      <c r="D107" s="16">
+        <v>10335056</v>
+      </c>
+      <c r="E107" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F107" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="G107" s="18">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H107" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="I107" s="17" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="108" ht="15.25" spans="4:9">
+      <c r="D108" s="16">
+        <v>10335073</v>
+      </c>
+      <c r="E108" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F108" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="G108" s="18">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H108" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="I108" s="17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="109" ht="15.25" spans="4:9">
+      <c r="D109" s="16">
+        <v>10335051</v>
+      </c>
+      <c r="E109" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F109" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="G109" s="18">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H109" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="I109" s="17" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="110" ht="15.25" spans="4:9">
+      <c r="D110" s="16">
+        <v>10335057</v>
+      </c>
+      <c r="E110" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F110" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="G110" s="18">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H110" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="I110" s="17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="111" ht="15.25" spans="4:9">
+      <c r="D111" s="16">
+        <v>10335027</v>
+      </c>
+      <c r="E111" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F111" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="G111" s="18">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H111" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="I111" s="17" t="s">
+        <v>163</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A2:G32" etc:filterBottomFollowUsedRange="0">
     <sortState ref="A2:G32">

--- a/Accounts-Schedules/تدريب 23-6-2025 فرع تجمع.xlsx
+++ b/Accounts-Schedules/تدريب 23-6-2025 فرع تجمع.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="174">
   <si>
     <t>Hello team, </t>
   </si>
@@ -545,6 +545,15 @@
   </si>
   <si>
     <t>End Date: 11/7/2025</t>
+  </si>
+  <si>
+    <t>Start date: 14/7/2025</t>
+  </si>
+  <si>
+    <t>End Date: 18/7/2025</t>
+  </si>
+  <si>
+    <t>Location: 5th Settlement</t>
   </si>
 </sst>
 </file>
@@ -560,7 +569,7 @@
     <numFmt numFmtId="179" formatCode="00000000000"/>
     <numFmt numFmtId="180" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -587,6 +596,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.25"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1231,137 +1247,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1392,61 +1408,64 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1455,7 +1474,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1789,331 +1808,331 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" ht="15.5" spans="1:1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:1">
-      <c r="A2" s="25"/>
+      <c r="A2" s="26"/>
     </row>
     <row r="3" ht="15.5" spans="1:1">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="15.5" spans="1:1">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="26" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" ht="15.5" spans="1:1">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" ht="16.25" spans="1:1">
-      <c r="A6" s="25"/>
+      <c r="A6" s="26"/>
     </row>
     <row r="7" ht="15.25" spans="1:3">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" ht="38.25" spans="1:3">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="28" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" ht="25.75" spans="1:3">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="30">
         <v>1550184789</v>
       </c>
     </row>
     <row r="10" ht="25.75" spans="1:3">
-      <c r="A10" s="30"/>
-      <c r="B10" s="29" t="s">
+      <c r="A10" s="31"/>
+      <c r="B10" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="30" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" ht="25.75" spans="1:3">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="30">
         <v>1061579577</v>
       </c>
     </row>
     <row r="12" ht="25.75" spans="1:3">
-      <c r="A12" s="30"/>
-      <c r="B12" s="29" t="s">
+      <c r="A12" s="31"/>
+      <c r="B12" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="30">
         <v>1556781384</v>
       </c>
     </row>
     <row r="13" ht="25.75" spans="1:3">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="30">
         <v>1101725173</v>
       </c>
     </row>
     <row r="14" ht="25.75" spans="1:3">
-      <c r="A14" s="30"/>
-      <c r="B14" s="29" t="s">
+      <c r="A14" s="31"/>
+      <c r="B14" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="30">
         <v>1095188156</v>
       </c>
     </row>
     <row r="15" ht="50.75" spans="1:3">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="30">
         <v>1156265544</v>
       </c>
     </row>
     <row r="16" ht="25.75" spans="1:3">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="29">
+      <c r="C16" s="30">
         <v>1009285674</v>
       </c>
     </row>
     <row r="17" ht="25.75" spans="1:3">
-      <c r="A17" s="30"/>
-      <c r="B17" s="29" t="s">
+      <c r="A17" s="31"/>
+      <c r="B17" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="30">
         <v>1033507698</v>
       </c>
     </row>
     <row r="18" ht="38.25" spans="1:3">
-      <c r="A18" s="30"/>
-      <c r="B18" s="29" t="s">
+      <c r="A18" s="31"/>
+      <c r="B18" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="30">
         <v>1062969212</v>
       </c>
     </row>
     <row r="19" ht="25.75" spans="1:3">
-      <c r="A19" s="30"/>
-      <c r="B19" s="29" t="s">
+      <c r="A19" s="31"/>
+      <c r="B19" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="30">
         <v>1153627633</v>
       </c>
     </row>
     <row r="20" ht="25.75" spans="1:3">
-      <c r="A20" s="30"/>
-      <c r="B20" s="29" t="s">
+      <c r="A20" s="31"/>
+      <c r="B20" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="29">
+      <c r="C20" s="30">
         <v>1129619680</v>
       </c>
     </row>
     <row r="21" ht="25.75" spans="1:3">
-      <c r="A21" s="30"/>
-      <c r="B21" s="29" t="s">
+      <c r="A21" s="31"/>
+      <c r="B21" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="29">
+      <c r="C21" s="30">
         <v>1098346978</v>
       </c>
     </row>
     <row r="22" ht="25.75" spans="1:3">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="32">
+      <c r="C22" s="33">
         <v>1017405291</v>
       </c>
     </row>
     <row r="23" ht="15.25" spans="1:3">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="29">
+      <c r="C23" s="30">
         <v>1024613600</v>
       </c>
     </row>
     <row r="24" ht="25.75" spans="1:3">
-      <c r="A24" s="30"/>
-      <c r="B24" s="29" t="s">
+      <c r="A24" s="31"/>
+      <c r="B24" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="29">
+      <c r="C24" s="30">
         <v>1032547186</v>
       </c>
     </row>
     <row r="25" ht="38.25" spans="1:3">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="29">
+      <c r="C25" s="30">
         <v>1007351707</v>
       </c>
     </row>
     <row r="26" ht="25.75" spans="1:3">
-      <c r="A26" s="33"/>
-      <c r="B26" s="32" t="s">
+      <c r="A26" s="34"/>
+      <c r="B26" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="32">
+      <c r="C26" s="33">
         <v>1030968156</v>
       </c>
     </row>
     <row r="27" ht="25.75" spans="1:3">
-      <c r="A27" s="30"/>
-      <c r="B27" s="29" t="s">
+      <c r="A27" s="31"/>
+      <c r="B27" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="29">
+      <c r="C27" s="30">
         <v>1285888728</v>
       </c>
     </row>
     <row r="28" ht="25.75" spans="1:3">
-      <c r="A28" s="30"/>
-      <c r="B28" s="29" t="s">
+      <c r="A28" s="31"/>
+      <c r="B28" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="29">
+      <c r="C28" s="30">
         <v>1005741195</v>
       </c>
     </row>
     <row r="29" ht="25.75" spans="1:3">
-      <c r="A29" s="30"/>
-      <c r="B29" s="29" t="s">
+      <c r="A29" s="31"/>
+      <c r="B29" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="29">
+      <c r="C29" s="30">
         <v>1012348684</v>
       </c>
     </row>
     <row r="30" ht="63.25" spans="1:3">
-      <c r="A30" s="30"/>
-      <c r="B30" s="29" t="s">
+      <c r="A30" s="31"/>
+      <c r="B30" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="29">
+      <c r="C30" s="30">
         <v>1553989783</v>
       </c>
     </row>
     <row r="31" ht="25.75" spans="1:3">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="29">
+      <c r="C31" s="30">
         <v>1016789685</v>
       </c>
     </row>
     <row r="32" ht="38.25" spans="1:3">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="32">
+      <c r="C32" s="33">
         <v>1110081480</v>
       </c>
     </row>
     <row r="33" ht="25.75" spans="1:3">
-      <c r="A33" s="30"/>
-      <c r="B33" s="29" t="s">
+      <c r="A33" s="31"/>
+      <c r="B33" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="29" t="s">
+      <c r="C33" s="30" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="34" ht="25.75" spans="1:3">
-      <c r="A34" s="30"/>
-      <c r="B34" s="29" t="s">
+      <c r="A34" s="31"/>
+      <c r="B34" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="29">
+      <c r="C34" s="30">
         <v>1013444202</v>
       </c>
     </row>
     <row r="35" ht="25.75" spans="1:3">
-      <c r="A35" s="30"/>
-      <c r="B35" s="29" t="s">
+      <c r="A35" s="31"/>
+      <c r="B35" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="29">
+      <c r="C35" s="30">
         <v>1040655429</v>
       </c>
     </row>
     <row r="36" ht="25.75" spans="1:3">
-      <c r="A36" s="34"/>
-      <c r="B36" s="35" t="s">
+      <c r="A36" s="35"/>
+      <c r="B36" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="35">
+      <c r="C36" s="36">
         <v>1142286774</v>
       </c>
     </row>
     <row r="37" ht="38.25" spans="1:3">
-      <c r="A37" s="36"/>
-      <c r="B37" s="27" t="s">
+      <c r="A37" s="37"/>
+      <c r="B37" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="27">
+      <c r="C37" s="28">
         <v>1007879704</v>
       </c>
     </row>
@@ -2136,447 +2155,447 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" ht="15.5" spans="1:1">
-      <c r="A1" s="20"/>
+      <c r="A1" s="21"/>
     </row>
     <row r="2" ht="15.5" spans="1:1">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" ht="16.25" spans="1:1">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21"/>
     </row>
     <row r="4" ht="15.25" spans="1:4">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="23" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="5" ht="38.25" spans="1:4">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="25" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="6" ht="25.75" spans="1:4">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="25">
         <v>1550184789</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="25" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="7" ht="25.75" spans="1:4">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="25" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="8" ht="25.75" spans="1:4">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="25">
         <v>1061579577</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="25" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="9" ht="25.75" spans="1:4">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="25">
         <v>1556781384</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="25" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="10" ht="25.75" spans="1:4">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="25">
         <v>1101725173</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="25" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="11" ht="25.75" spans="1:4">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="25">
         <v>1095188156</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="25" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="12" ht="50.75" spans="1:4">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="25">
         <v>1156265544</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="25" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="13" ht="25.75" spans="1:4">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="25">
         <v>1009285674</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="25" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="14" ht="25.75" spans="1:4">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="25">
         <v>1033507698</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="25" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="15" ht="38.25" spans="1:4">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B15" s="25">
         <v>1062969212</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="25" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="16" ht="38.25" spans="1:4">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="25">
         <v>1153627633</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="25" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="17" ht="25.75" spans="1:4">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="25">
         <v>1129619680</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="25" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="18" ht="25.75" spans="1:4">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="25">
         <v>1098346978</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="25" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="19" ht="25.75" spans="1:4">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="24">
+      <c r="B19" s="25">
         <v>1017405291</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="25" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="20" ht="15.25" spans="1:4">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="24">
+      <c r="B20" s="25">
         <v>1024613600</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="25" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="21" ht="25.75" spans="1:4">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="24">
+      <c r="B21" s="25">
         <v>1283438276</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="25" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="22" ht="38.25" spans="1:4">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="24">
+      <c r="B22" s="25">
         <v>1007351707</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="25" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="23" ht="25.75" spans="1:4">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="24">
+      <c r="B23" s="25">
         <v>1030968156</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="25" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="24" ht="25.75" spans="1:4">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="24">
+      <c r="B24" s="25">
         <v>1285888728</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="25" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="25" ht="25.75" spans="1:4">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="24">
+      <c r="B25" s="25">
         <v>1005741195</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="25" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="26" ht="25.75" spans="1:4">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="24">
+      <c r="B26" s="25">
         <v>1012348684</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="25" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="27" ht="63.25" spans="1:4">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="24">
+      <c r="B27" s="25">
         <v>1553989783</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="25" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="28" ht="25.75" spans="1:4">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="24">
+      <c r="B28" s="25">
         <v>1016789685</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="25" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="29" ht="38.25" spans="1:4">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="24">
+      <c r="B29" s="25">
         <v>1110081480</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="25" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="30" ht="25.75" spans="1:4">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="25" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="31" ht="38.25" spans="1:4">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="24">
+      <c r="B31" s="25">
         <v>1013444202</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="25" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="32" ht="25.75" spans="1:4">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="24">
+      <c r="B32" s="25">
         <v>1040655429</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="D32" s="24" t="s">
+      <c r="D32" s="25" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="33" ht="25.75" spans="1:4">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="24">
+      <c r="B33" s="25">
         <v>1142286774</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="25" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="34" ht="38.25" spans="1:4">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="24">
+      <c r="B34" s="25">
         <v>1007879704</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="D34" s="24" t="s">
+      <c r="D34" s="25" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2590,10 +2609,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I111"/>
+  <dimension ref="A1:I136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="D90" sqref="D90:G111"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="D117" sqref="D117:G136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -4238,19 +4257,20 @@
         <v>36</v>
       </c>
     </row>
+    <row r="88" ht="15.25"/>
     <row r="89" ht="15.25" spans="4:9">
-      <c r="D89" s="14" t="s">
+      <c r="D89" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="E89" s="15" t="s">
+      <c r="E89" s="8" t="s">
         <v>147</v>
       </c>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
-      <c r="H89" s="15" t="s">
+      <c r="H89" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="I89" s="15" t="s">
+      <c r="I89" s="8" t="s">
         <v>149</v>
       </c>
     </row>
@@ -4258,22 +4278,22 @@
       <c r="B90" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D90" s="16">
+      <c r="D90" s="9">
         <v>10335118</v>
       </c>
-      <c r="E90" s="17" t="s">
+      <c r="E90" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F90" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="G90" s="18">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="H90" s="17" t="s">
+      <c r="F90" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G90" s="14">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H90" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="I90" s="17" t="s">
+      <c r="I90" s="12" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4281,22 +4301,22 @@
       <c r="B91" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D91" s="16">
+      <c r="D91" s="9">
         <v>10335058</v>
       </c>
-      <c r="E91" s="17" t="s">
+      <c r="E91" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="F91" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="G91" s="18">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="H91" s="17" t="s">
+      <c r="F91" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G91" s="14">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H91" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="I91" s="17" t="s">
+      <c r="I91" s="12" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4304,22 +4324,22 @@
       <c r="B92" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D92" s="16">
+      <c r="D92" s="9">
         <v>10335131</v>
       </c>
-      <c r="E92" s="17" t="s">
+      <c r="E92" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F92" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="G92" s="18">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="H92" s="17" t="s">
+      <c r="F92" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G92" s="14">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H92" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="I92" s="17" t="s">
+      <c r="I92" s="12" t="s">
         <v>156</v>
       </c>
     </row>
@@ -4327,22 +4347,22 @@
       <c r="B93" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D93" s="16">
+      <c r="D93" s="9">
         <v>10335012</v>
       </c>
-      <c r="E93" s="17" t="s">
+      <c r="E93" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="F93" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="G93" s="18">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="H93" s="17" t="s">
+      <c r="F93" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G93" s="14">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H93" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="I93" s="17" t="s">
+      <c r="I93" s="12" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4350,362 +4370,794 @@
       <c r="B94" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D94" s="16">
+      <c r="D94" s="9">
         <v>10335179</v>
       </c>
-      <c r="E94" s="17" t="s">
+      <c r="E94" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F94" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="G94" s="18">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="H94" s="17" t="s">
+      <c r="F94" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G94" s="14">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H94" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="I94" s="17" t="s">
+      <c r="I94" s="12" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="95" ht="15.25" spans="4:9">
-      <c r="D95" s="16">
+      <c r="D95" s="9">
         <v>10335167</v>
       </c>
-      <c r="E95" s="17" t="s">
+      <c r="E95" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F95" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="G95" s="18">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="H95" s="17" t="s">
+      <c r="F95" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G95" s="14">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H95" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="I95" s="17" t="s">
+      <c r="I95" s="12" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="96" ht="15.25" spans="4:9">
-      <c r="D96" s="16">
+      <c r="D96" s="9">
         <v>10335055</v>
       </c>
-      <c r="E96" s="17" t="s">
+      <c r="E96" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F96" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="G96" s="18">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="H96" s="17" t="s">
+      <c r="F96" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G96" s="14">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H96" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="I96" s="17" t="s">
+      <c r="I96" s="12" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="97" ht="15.25" spans="4:9">
-      <c r="D97" s="16">
+      <c r="D97" s="9">
         <v>10335019</v>
       </c>
-      <c r="E97" s="17" t="s">
+      <c r="E97" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F97" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="G97" s="18">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="H97" s="17" t="s">
+      <c r="F97" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G97" s="14">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H97" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="I97" s="17" t="s">
+      <c r="I97" s="12" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="98" ht="15.25" spans="4:9">
-      <c r="D98" s="16">
+      <c r="D98" s="9">
         <v>10335026</v>
       </c>
-      <c r="E98" s="17" t="s">
+      <c r="E98" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F98" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="G98" s="18">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="H98" s="17" t="s">
+      <c r="F98" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G98" s="14">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H98" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="I98" s="17" t="s">
+      <c r="I98" s="12" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="99" ht="15.25" spans="4:9">
-      <c r="D99" s="16">
+      <c r="D99" s="9">
         <v>10335066</v>
       </c>
-      <c r="E99" s="17" t="s">
+      <c r="E99" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F99" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="G99" s="18">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="H99" s="17" t="s">
+      <c r="F99" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G99" s="14">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H99" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="I99" s="17" t="s">
+      <c r="I99" s="12" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="100" ht="15.25" spans="4:9">
-      <c r="D100" s="16">
+      <c r="D100" s="9">
         <v>10335052</v>
       </c>
-      <c r="E100" s="17" t="s">
+      <c r="E100" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F100" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="G100" s="18">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="H100" s="19" t="s">
+      <c r="F100" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G100" s="14">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H100" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="I100" s="19" t="s">
+      <c r="I100" s="13" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="101" ht="15.25" spans="4:9">
-      <c r="D101" s="16">
+      <c r="D101" s="9">
         <v>10333832</v>
       </c>
-      <c r="E101" s="17" t="s">
+      <c r="E101" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F101" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="G101" s="18">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="H101" s="17" t="s">
+      <c r="F101" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G101" s="14">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H101" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="I101" s="17" t="s">
+      <c r="I101" s="12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="102" ht="15.25" spans="4:9">
-      <c r="D102" s="16">
+      <c r="D102" s="9">
         <v>10335013</v>
       </c>
-      <c r="E102" s="17" t="s">
+      <c r="E102" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F102" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="G102" s="18">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="H102" s="17" t="s">
+      <c r="F102" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G102" s="14">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H102" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="I102" s="17" t="s">
+      <c r="I102" s="12" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="103" ht="15.25" spans="4:9">
-      <c r="D103" s="16">
+      <c r="D103" s="9">
         <v>10335060</v>
       </c>
-      <c r="E103" s="17" t="s">
+      <c r="E103" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F103" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="G103" s="18">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="H103" s="17" t="s">
+      <c r="F103" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G103" s="14">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H103" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="I103" s="17" t="s">
+      <c r="I103" s="12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="104" ht="15.25" spans="4:9">
-      <c r="D104" s="16">
+      <c r="D104" s="9">
         <v>10335050</v>
       </c>
-      <c r="E104" s="17" t="s">
+      <c r="E104" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F104" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="G104" s="18">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="H104" s="17" t="s">
+      <c r="F104" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G104" s="14">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H104" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="I104" s="17" t="s">
+      <c r="I104" s="12" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="105" ht="15.25" spans="4:9">
-      <c r="D105" s="16">
+      <c r="D105" s="9">
         <v>10335120</v>
       </c>
-      <c r="E105" s="17" t="s">
+      <c r="E105" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="F105" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="G105" s="18">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="H105" s="17" t="s">
+      <c r="F105" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G105" s="14">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H105" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="I105" s="17" t="s">
+      <c r="I105" s="12" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="106" ht="15.25" spans="4:9">
-      <c r="D106" s="16">
+      <c r="D106" s="9">
         <v>10335024</v>
       </c>
-      <c r="E106" s="17" t="s">
+      <c r="E106" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F106" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="G106" s="18">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="H106" s="17" t="s">
+      <c r="F106" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G106" s="14">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H106" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="I106" s="17" t="s">
+      <c r="I106" s="12" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="107" ht="15.25" spans="4:9">
-      <c r="D107" s="16">
+      <c r="D107" s="9">
         <v>10335056</v>
       </c>
-      <c r="E107" s="17" t="s">
+      <c r="E107" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="F107" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="G107" s="18">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="H107" s="17" t="s">
+      <c r="F107" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G107" s="14">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H107" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="I107" s="17" t="s">
+      <c r="I107" s="12" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="108" ht="15.25" spans="4:9">
-      <c r="D108" s="16">
+      <c r="D108" s="9">
         <v>10335073</v>
       </c>
-      <c r="E108" s="17" t="s">
+      <c r="E108" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F108" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="G108" s="18">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="H108" s="17" t="s">
+      <c r="F108" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G108" s="14">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H108" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="I108" s="17" t="s">
+      <c r="I108" s="12" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="109" ht="15.25" spans="4:9">
-      <c r="D109" s="16">
+      <c r="D109" s="9">
         <v>10335051</v>
       </c>
-      <c r="E109" s="17" t="s">
+      <c r="E109" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F109" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="G109" s="18">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="H109" s="17" t="s">
+      <c r="F109" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G109" s="14">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H109" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="I109" s="17" t="s">
+      <c r="I109" s="12" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="110" ht="15.25" spans="4:9">
-      <c r="D110" s="16">
+      <c r="D110" s="9">
         <v>10335057</v>
       </c>
-      <c r="E110" s="17" t="s">
+      <c r="E110" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F110" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="G110" s="18">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="H110" s="17" t="s">
+      <c r="F110" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G110" s="14">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H110" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="I110" s="17" t="s">
+      <c r="I110" s="12" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="111" ht="15.25" spans="4:9">
-      <c r="D111" s="16">
+      <c r="D111" s="9">
         <v>10335027</v>
       </c>
-      <c r="E111" s="17" t="s">
+      <c r="E111" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F111" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="G111" s="18">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="H111" s="17" t="s">
+      <c r="F111" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G111" s="14">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H111" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="I111" s="17" t="s">
+      <c r="I111" s="12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="115" ht="15.25"/>
+    <row r="116" ht="15.25" spans="4:9">
+      <c r="D116" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="E116" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c r="H116" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="I116" s="16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="117" ht="17.75" spans="2:9">
+      <c r="B117" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="D117" s="18">
+        <v>10335118</v>
+      </c>
+      <c r="E117" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F117" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G117" s="14">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H117" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="I117" s="19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="118" ht="17.75" spans="2:9">
+      <c r="B118" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D118" s="18">
+        <v>10335058</v>
+      </c>
+      <c r="E118" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="F118" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G118" s="14">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H118" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="I118" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="119" ht="17.75" spans="2:9">
+      <c r="B119" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="D119" s="18">
+        <v>10335131</v>
+      </c>
+      <c r="E119" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F119" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G119" s="14">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H119" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="I119" s="19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="120" ht="17.75" spans="2:9">
+      <c r="B120" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D120" s="18">
+        <v>10335012</v>
+      </c>
+      <c r="E120" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="F120" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G120" s="14">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H120" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="I120" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="121" ht="17.75" spans="2:9">
+      <c r="B121" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="D121" s="18">
+        <v>10335179</v>
+      </c>
+      <c r="E121" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F121" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G121" s="14">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H121" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="I121" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="122" ht="15.25" spans="4:9">
+      <c r="D122" s="18">
+        <v>10335167</v>
+      </c>
+      <c r="E122" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F122" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G122" s="14">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H122" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="I122" s="19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="123" ht="15.25" spans="4:9">
+      <c r="D123" s="18">
+        <v>10335055</v>
+      </c>
+      <c r="E123" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F123" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G123" s="14">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H123" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="I123" s="19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="124" ht="15.25" spans="4:9">
+      <c r="D124" s="18">
+        <v>10335026</v>
+      </c>
+      <c r="E124" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F124" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G124" s="14">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H124" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="I124" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="125" ht="15.25" spans="4:9">
+      <c r="D125" s="18">
+        <v>10335066</v>
+      </c>
+      <c r="E125" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F125" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G125" s="14">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H125" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="I125" s="19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="126" ht="15.25" spans="4:9">
+      <c r="D126" s="18">
+        <v>10335052</v>
+      </c>
+      <c r="E126" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F126" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G126" s="14">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H126" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="I126" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="127" ht="15.25" spans="4:9">
+      <c r="D127" s="18">
+        <v>10333832</v>
+      </c>
+      <c r="E127" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F127" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G127" s="14">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H127" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="I127" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="128" ht="15.25" spans="4:9">
+      <c r="D128" s="18">
+        <v>10335060</v>
+      </c>
+      <c r="E128" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F128" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G128" s="14">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H128" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="I128" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="129" ht="15.25" spans="4:9">
+      <c r="D129" s="18">
+        <v>10335050</v>
+      </c>
+      <c r="E129" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F129" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G129" s="14">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H129" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="I129" s="19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="130" ht="15.25" spans="4:9">
+      <c r="D130" s="18">
+        <v>10335120</v>
+      </c>
+      <c r="E130" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F130" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G130" s="14">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H130" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="I130" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="131" ht="15.25" spans="4:9">
+      <c r="D131" s="18">
+        <v>10335024</v>
+      </c>
+      <c r="E131" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F131" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G131" s="14">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H131" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="I131" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="132" ht="15.25" spans="4:9">
+      <c r="D132" s="18">
+        <v>10335056</v>
+      </c>
+      <c r="E132" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F132" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G132" s="14">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H132" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="I132" s="19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="133" ht="15.25" spans="4:9">
+      <c r="D133" s="18">
+        <v>10335073</v>
+      </c>
+      <c r="E133" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F133" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G133" s="14">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H133" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="I133" s="19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="134" ht="15.25" spans="4:9">
+      <c r="D134" s="18">
+        <v>10335051</v>
+      </c>
+      <c r="E134" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F134" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G134" s="14">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H134" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="I134" s="19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="135" ht="15.25" spans="4:9">
+      <c r="D135" s="18">
+        <v>10335057</v>
+      </c>
+      <c r="E135" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F135" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G135" s="14">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H135" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="I135" s="19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="136" ht="15.25" spans="4:9">
+      <c r="D136" s="18">
+        <v>10335027</v>
+      </c>
+      <c r="E136" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F136" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G136" s="14">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H136" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="I136" s="19" t="s">
         <v>163</v>
       </c>
     </row>

--- a/Accounts-Schedules/تدريب 23-6-2025 فرع تجمع.xlsx
+++ b/Accounts-Schedules/تدريب 23-6-2025 فرع تجمع.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="177">
   <si>
     <t>Hello team, </t>
   </si>
@@ -554,6 +554,15 @@
   </si>
   <si>
     <t>Location: 5th Settlement</t>
+  </si>
+  <si>
+    <t>Departure: 6:00 PM</t>
+  </si>
+  <si>
+    <t>Start date: 21/7/2025</t>
+  </si>
+  <si>
+    <t>End Date: 25/7/2025</t>
   </si>
 </sst>
 </file>
@@ -1411,14 +1420,14 @@
     <xf numFmtId="180" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -2609,10 +2618,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I136"/>
+  <dimension ref="A1:I155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="D117" sqref="D117:G136"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="D141" sqref="D141:G155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -4731,29 +4740,29 @@
     </row>
     <row r="115" ht="15.25"/>
     <row r="116" ht="15.25" spans="4:9">
-      <c r="D116" s="15" t="s">
+      <c r="D116" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="E116" s="16" t="s">
+      <c r="E116" s="8" t="s">
         <v>147</v>
       </c>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
-      <c r="H116" s="16" t="s">
+      <c r="H116" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="I116" s="16" t="s">
+      <c r="I116" s="8" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="117" ht="17.75" spans="2:9">
-      <c r="B117" s="17" t="s">
+      <c r="B117" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="D117" s="18">
+      <c r="D117" s="9">
         <v>10335118</v>
       </c>
-      <c r="E117" s="19" t="s">
+      <c r="E117" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F117" s="14">
@@ -4762,21 +4771,21 @@
       <c r="G117" s="14">
         <v>0.708333333333333</v>
       </c>
-      <c r="H117" s="19" t="s">
+      <c r="H117" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="I117" s="19" t="s">
+      <c r="I117" s="12" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="118" ht="17.75" spans="2:9">
-      <c r="B118" s="17" t="s">
+      <c r="B118" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="D118" s="18">
+      <c r="D118" s="9">
         <v>10335058</v>
       </c>
-      <c r="E118" s="19" t="s">
+      <c r="E118" s="12" t="s">
         <v>154</v>
       </c>
       <c r="F118" s="14">
@@ -4785,21 +4794,21 @@
       <c r="G118" s="14">
         <v>0.708333333333333</v>
       </c>
-      <c r="H118" s="19" t="s">
+      <c r="H118" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="I118" s="19" t="s">
+      <c r="I118" s="12" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="119" ht="17.75" spans="2:9">
-      <c r="B119" s="17" t="s">
+      <c r="B119" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="D119" s="18">
+      <c r="D119" s="9">
         <v>10335131</v>
       </c>
-      <c r="E119" s="19" t="s">
+      <c r="E119" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F119" s="14">
@@ -4808,21 +4817,21 @@
       <c r="G119" s="14">
         <v>0.708333333333333</v>
       </c>
-      <c r="H119" s="19" t="s">
+      <c r="H119" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="I119" s="19" t="s">
+      <c r="I119" s="12" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="120" ht="17.75" spans="2:9">
-      <c r="B120" s="17" t="s">
+      <c r="B120" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="D120" s="18">
+      <c r="D120" s="9">
         <v>10335012</v>
       </c>
-      <c r="E120" s="19" t="s">
+      <c r="E120" s="12" t="s">
         <v>158</v>
       </c>
       <c r="F120" s="14">
@@ -4831,21 +4840,21 @@
       <c r="G120" s="14">
         <v>0.708333333333333</v>
       </c>
-      <c r="H120" s="19" t="s">
+      <c r="H120" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="I120" s="19" t="s">
+      <c r="I120" s="12" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="121" ht="17.75" spans="2:9">
-      <c r="B121" s="17" t="s">
+      <c r="B121" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="D121" s="18">
+      <c r="D121" s="9">
         <v>10335179</v>
       </c>
-      <c r="E121" s="19" t="s">
+      <c r="E121" s="12" t="s">
         <v>17</v>
       </c>
       <c r="F121" s="14">
@@ -4854,18 +4863,18 @@
       <c r="G121" s="14">
         <v>0.708333333333333</v>
       </c>
-      <c r="H121" s="19" t="s">
+      <c r="H121" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="I121" s="19" t="s">
+      <c r="I121" s="12" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="122" ht="15.25" spans="4:9">
-      <c r="D122" s="18">
+      <c r="D122" s="9">
         <v>10335167</v>
       </c>
-      <c r="E122" s="19" t="s">
+      <c r="E122" s="12" t="s">
         <v>20</v>
       </c>
       <c r="F122" s="14">
@@ -4874,18 +4883,18 @@
       <c r="G122" s="14">
         <v>0.708333333333333</v>
       </c>
-      <c r="H122" s="19" t="s">
+      <c r="H122" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="I122" s="19" t="s">
+      <c r="I122" s="12" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="123" ht="15.25" spans="4:9">
-      <c r="D123" s="18">
+      <c r="D123" s="9">
         <v>10335055</v>
       </c>
-      <c r="E123" s="19" t="s">
+      <c r="E123" s="12" t="s">
         <v>22</v>
       </c>
       <c r="F123" s="14">
@@ -4894,18 +4903,18 @@
       <c r="G123" s="14">
         <v>0.708333333333333</v>
       </c>
-      <c r="H123" s="19" t="s">
+      <c r="H123" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="I123" s="19" t="s">
+      <c r="I123" s="12" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="124" ht="15.25" spans="4:9">
-      <c r="D124" s="18">
+      <c r="D124" s="9">
         <v>10335026</v>
       </c>
-      <c r="E124" s="19" t="s">
+      <c r="E124" s="12" t="s">
         <v>26</v>
       </c>
       <c r="F124" s="14">
@@ -4914,18 +4923,18 @@
       <c r="G124" s="14">
         <v>0.708333333333333</v>
       </c>
-      <c r="H124" s="19" t="s">
+      <c r="H124" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="I124" s="19" t="s">
+      <c r="I124" s="12" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="125" ht="15.25" spans="4:9">
-      <c r="D125" s="18">
+      <c r="D125" s="9">
         <v>10335066</v>
       </c>
-      <c r="E125" s="19" t="s">
+      <c r="E125" s="12" t="s">
         <v>27</v>
       </c>
       <c r="F125" s="14">
@@ -4934,18 +4943,18 @@
       <c r="G125" s="14">
         <v>0.708333333333333</v>
       </c>
-      <c r="H125" s="19" t="s">
+      <c r="H125" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="I125" s="19" t="s">
+      <c r="I125" s="12" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="126" ht="15.25" spans="4:9">
-      <c r="D126" s="18">
+      <c r="D126" s="9">
         <v>10335052</v>
       </c>
-      <c r="E126" s="19" t="s">
+      <c r="E126" s="12" t="s">
         <v>29</v>
       </c>
       <c r="F126" s="14">
@@ -4954,18 +4963,18 @@
       <c r="G126" s="14">
         <v>0.708333333333333</v>
       </c>
-      <c r="H126" s="20" t="s">
+      <c r="H126" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="I126" s="20" t="s">
+      <c r="I126" s="13" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="127" ht="15.25" spans="4:9">
-      <c r="D127" s="18">
+      <c r="D127" s="9">
         <v>10333832</v>
       </c>
-      <c r="E127" s="19" t="s">
+      <c r="E127" s="12" t="s">
         <v>31</v>
       </c>
       <c r="F127" s="14">
@@ -4974,18 +4983,18 @@
       <c r="G127" s="14">
         <v>0.708333333333333</v>
       </c>
-      <c r="H127" s="19" t="s">
+      <c r="H127" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="I127" s="19" t="s">
+      <c r="I127" s="12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="128" ht="15.25" spans="4:9">
-      <c r="D128" s="18">
+      <c r="D128" s="9">
         <v>10335060</v>
       </c>
-      <c r="E128" s="19" t="s">
+      <c r="E128" s="12" t="s">
         <v>37</v>
       </c>
       <c r="F128" s="14">
@@ -4994,18 +5003,18 @@
       <c r="G128" s="14">
         <v>0.708333333333333</v>
       </c>
-      <c r="H128" s="19" t="s">
+      <c r="H128" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="I128" s="19" t="s">
+      <c r="I128" s="12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="129" ht="15.25" spans="4:9">
-      <c r="D129" s="18">
+      <c r="D129" s="9">
         <v>10335050</v>
       </c>
-      <c r="E129" s="19" t="s">
+      <c r="E129" s="12" t="s">
         <v>38</v>
       </c>
       <c r="F129" s="14">
@@ -5014,18 +5023,18 @@
       <c r="G129" s="14">
         <v>0.708333333333333</v>
       </c>
-      <c r="H129" s="19" t="s">
+      <c r="H129" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="I129" s="19" t="s">
+      <c r="I129" s="12" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="130" ht="15.25" spans="4:9">
-      <c r="D130" s="18">
+      <c r="D130" s="9">
         <v>10335120</v>
       </c>
-      <c r="E130" s="19" t="s">
+      <c r="E130" s="12" t="s">
         <v>87</v>
       </c>
       <c r="F130" s="14">
@@ -5034,18 +5043,18 @@
       <c r="G130" s="14">
         <v>0.708333333333333</v>
       </c>
-      <c r="H130" s="19" t="s">
+      <c r="H130" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="I130" s="19" t="s">
+      <c r="I130" s="12" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="131" ht="15.25" spans="4:9">
-      <c r="D131" s="18">
+      <c r="D131" s="9">
         <v>10335024</v>
       </c>
-      <c r="E131" s="19" t="s">
+      <c r="E131" s="12" t="s">
         <v>41</v>
       </c>
       <c r="F131" s="14">
@@ -5054,18 +5063,18 @@
       <c r="G131" s="14">
         <v>0.708333333333333</v>
       </c>
-      <c r="H131" s="19" t="s">
+      <c r="H131" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="I131" s="19" t="s">
+      <c r="I131" s="12" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="132" ht="15.25" spans="4:9">
-      <c r="D132" s="18">
+      <c r="D132" s="9">
         <v>10335056</v>
       </c>
-      <c r="E132" s="19" t="s">
+      <c r="E132" s="12" t="s">
         <v>88</v>
       </c>
       <c r="F132" s="14">
@@ -5074,18 +5083,18 @@
       <c r="G132" s="14">
         <v>0.708333333333333</v>
       </c>
-      <c r="H132" s="19" t="s">
+      <c r="H132" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="I132" s="19" t="s">
+      <c r="I132" s="12" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="133" ht="15.25" spans="4:9">
-      <c r="D133" s="18">
+      <c r="D133" s="9">
         <v>10335073</v>
       </c>
-      <c r="E133" s="19" t="s">
+      <c r="E133" s="12" t="s">
         <v>47</v>
       </c>
       <c r="F133" s="14">
@@ -5094,18 +5103,18 @@
       <c r="G133" s="14">
         <v>0.708333333333333</v>
       </c>
-      <c r="H133" s="19" t="s">
+      <c r="H133" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="I133" s="19" t="s">
+      <c r="I133" s="12" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="134" ht="15.25" spans="4:9">
-      <c r="D134" s="18">
+      <c r="D134" s="9">
         <v>10335051</v>
       </c>
-      <c r="E134" s="19" t="s">
+      <c r="E134" s="12" t="s">
         <v>34</v>
       </c>
       <c r="F134" s="14">
@@ -5114,18 +5123,18 @@
       <c r="G134" s="14">
         <v>0.708333333333333</v>
       </c>
-      <c r="H134" s="19" t="s">
+      <c r="H134" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="I134" s="19" t="s">
+      <c r="I134" s="12" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="135" ht="15.25" spans="4:9">
-      <c r="D135" s="18">
+      <c r="D135" s="9">
         <v>10335057</v>
       </c>
-      <c r="E135" s="19" t="s">
+      <c r="E135" s="12" t="s">
         <v>18</v>
       </c>
       <c r="F135" s="14">
@@ -5134,18 +5143,18 @@
       <c r="G135" s="14">
         <v>0.708333333333333</v>
       </c>
-      <c r="H135" s="19" t="s">
+      <c r="H135" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="I135" s="19" t="s">
+      <c r="I135" s="12" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="136" ht="15.25" spans="4:9">
-      <c r="D136" s="18">
+      <c r="D136" s="9">
         <v>10335027</v>
       </c>
-      <c r="E136" s="19" t="s">
+      <c r="E136" s="12" t="s">
         <v>36</v>
       </c>
       <c r="F136" s="14">
@@ -5154,10 +5163,341 @@
       <c r="G136" s="14">
         <v>0.708333333333333</v>
       </c>
-      <c r="H136" s="19" t="s">
+      <c r="H136" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="I136" s="19" t="s">
+      <c r="I136" s="12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="140" ht="15.25" spans="4:9">
+      <c r="D140" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="E140" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="F140" s="17"/>
+      <c r="G140" s="17"/>
+      <c r="H140" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="I140" s="17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="141" ht="15.25" spans="2:9">
+      <c r="B141" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D141" s="18">
+        <v>10335058</v>
+      </c>
+      <c r="E141" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="F141" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G141" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="H141" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="I141" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="142" ht="15.25" spans="2:9">
+      <c r="B142" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D142" s="18">
+        <v>10335167</v>
+      </c>
+      <c r="E142" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F142" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G142" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="H142" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="I142" s="19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="143" ht="15.25" spans="2:9">
+      <c r="B143" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D143" s="18">
+        <v>10335055</v>
+      </c>
+      <c r="E143" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F143" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G143" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="H143" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="I143" s="19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="144" ht="15.25" spans="2:9">
+      <c r="B144" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D144" s="18">
+        <v>10335026</v>
+      </c>
+      <c r="E144" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F144" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G144" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="H144" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="I144" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="145" ht="15.25" spans="2:9">
+      <c r="B145" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D145" s="18">
+        <v>10335066</v>
+      </c>
+      <c r="E145" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F145" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G145" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="H145" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="I145" s="19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="146" ht="15.25" spans="4:9">
+      <c r="D146" s="18">
+        <v>10335052</v>
+      </c>
+      <c r="E146" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F146" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G146" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="H146" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="I146" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="147" ht="15.25" spans="4:9">
+      <c r="D147" s="18">
+        <v>10335060</v>
+      </c>
+      <c r="E147" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F147" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G147" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="H147" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="I147" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="148" ht="15.25" spans="4:9">
+      <c r="D148" s="18">
+        <v>10335050</v>
+      </c>
+      <c r="E148" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F148" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G148" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="H148" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="I148" s="19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="149" ht="15.25" spans="4:9">
+      <c r="D149" s="18">
+        <v>10335120</v>
+      </c>
+      <c r="E149" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F149" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G149" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="H149" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="I149" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="150" ht="15.25" spans="4:9">
+      <c r="D150" s="18">
+        <v>10335024</v>
+      </c>
+      <c r="E150" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F150" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G150" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="H150" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="I150" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="151" ht="15.25" spans="4:9">
+      <c r="D151" s="18">
+        <v>10335056</v>
+      </c>
+      <c r="E151" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F151" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G151" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="H151" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="I151" s="19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="152" ht="15.25" spans="4:9">
+      <c r="D152" s="18">
+        <v>10335073</v>
+      </c>
+      <c r="E152" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F152" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G152" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="H152" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="I152" s="19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="153" ht="15.25" spans="4:9">
+      <c r="D153" s="18">
+        <v>10335051</v>
+      </c>
+      <c r="E153" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F153" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G153" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="H153" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="I153" s="19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="154" ht="15.25" spans="4:9">
+      <c r="D154" s="18">
+        <v>10335057</v>
+      </c>
+      <c r="E154" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F154" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G154" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="H154" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="I154" s="19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="155" ht="15.25" spans="4:9">
+      <c r="D155" s="18">
+        <v>10335027</v>
+      </c>
+      <c r="E155" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F155" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G155" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="H155" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="I155" s="19" t="s">
         <v>163</v>
       </c>
     </row>
